--- a/results/searchstims/source_data/10stims_white_background/test_results_table_mean_sd_single_col.xlsx
+++ b/results/searchstims/source_data/10stims_white_background/test_results_table_mean_sd_single_col.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.913 (0.913)</t>
+          <t>0.913 (0.009)</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.823 (0.823)</t>
+          <t>0.823 (0.168)</t>
         </is>
       </c>
     </row>
